--- a/Wip/UnitTest/DaiPA/Unit Test UC_DaiPA(v02).xlsx
+++ b/Wip/UnitTest/DaiPA/Unit Test UC_DaiPA(v02).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11475" windowHeight="7230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11475" windowHeight="7230" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Guidleline" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="139">
   <si>
     <t>UNIT TEST CASE</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Input2:</t>
   </si>
   <si>
-    <t>NowDate</t>
-  </si>
-  <si>
     <t>28-08-2014</t>
   </si>
   <si>
@@ -437,6 +434,24 @@
   </si>
   <si>
     <t>CheckAttempt</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"abc123"</t>
+  </si>
+  <si>
+    <t>DateNow</t>
+  </si>
+  <si>
+    <t>NumberCard from CSDL</t>
+  </si>
+  <si>
+    <t>"adfgh"</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2002,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2563,228 +2578,8 @@
     <xf numFmtId="2" fontId="30" fillId="24" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="24" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="40" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="41" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="79" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="80" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="24" borderId="63" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="24" borderId="63" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="78" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="61" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="28" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2846,6 +2641,232 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="35"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="24" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="40" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="40" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="40" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="61" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="24" borderId="63" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="64" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="65" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="24" borderId="63" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="62" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="78" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="41" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="79" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="74" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="80" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="28" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="29" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -3081,7 +3102,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -3699,7 +3720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17 0 43</c:v>
+                  <c:v>20 3 37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3806,13 +3827,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,13 +4842,13 @@
   <sheetData>
     <row r="2" spans="1:6" ht="32.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
@@ -4841,11 +4862,11 @@
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
       <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
@@ -4857,25 +4878,25 @@
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
@@ -4884,10 +4905,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="218"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
@@ -5016,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5030,17 +5051,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="34"/>
@@ -5057,69 +5078,69 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222" t="s">
+      <c r="C4" s="251"/>
+      <c r="D4" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="223" t="s">
+      <c r="E4" s="252"/>
+      <c r="F4" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="225"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="257"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="222" t="s">
+      <c r="C5" s="251"/>
+      <c r="D5" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="222"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="225"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="257"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="251" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="222" t="s">
+      <c r="C6" s="251"/>
+      <c r="D6" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="222"/>
-      <c r="F6" s="227">
+      <c r="E6" s="252"/>
+      <c r="F6" s="248">
         <v>41737</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="229"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="250"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="39" t="s">
@@ -5154,34 +5175,34 @@
       <c r="A12" s="44">
         <v>1</v>
       </c>
-      <c r="B12" s="316" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="317">
+      <c r="B12" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="243">
         <f>'Accept Card'!A7</f>
-        <v>6</v>
-      </c>
-      <c r="D12" s="317">
+        <v>9</v>
+      </c>
+      <c r="D12" s="243">
         <f>'Accept Card'!C7</f>
         <v>0</v>
       </c>
-      <c r="E12" s="317">
+      <c r="E12" s="243">
         <f>'Accept Card'!E7</f>
-        <v>9</v>
-      </c>
-      <c r="F12" s="317">
+        <v>6</v>
+      </c>
+      <c r="F12" s="243">
         <f>'Accept Card'!K7</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="317">
+        <v>4</v>
+      </c>
+      <c r="G12" s="243">
         <f>'Accept Card'!L7</f>
         <v>4</v>
       </c>
-      <c r="H12" s="317">
+      <c r="H12" s="243">
         <f>'Accept Card'!M7</f>
         <v>1</v>
       </c>
-      <c r="I12" s="317">
+      <c r="I12" s="243">
         <f>'Accept Card'!N7</f>
         <v>15</v>
       </c>
@@ -5195,7 +5216,7 @@
       </c>
       <c r="C13" s="45">
         <f>'Read card'!A7</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="45">
         <f>'Read card'!C7</f>
@@ -5203,11 +5224,11 @@
       </c>
       <c r="E13" s="45">
         <f>'Read card'!E7</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="46">
         <f>'Read card'!K7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="45">
         <f>'Read card'!L7</f>
@@ -5227,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="195" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="45">
         <f>'Validate Card'!A7</f>
@@ -5263,23 +5284,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="45">
         <f>'Validate PIN'!A7</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="45">
         <f>'Validate PIN'!C7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="45">
         <f>'Validate PIN'!E7</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="45">
         <f>'Validate PIN'!K7</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G15" s="45">
         <f>'Validate PIN'!L7</f>
@@ -5299,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="195" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="45">
         <f>CheckAttempt!A7</f>
@@ -5388,31 +5409,31 @@
         <v>99</v>
       </c>
       <c r="C21" s="208">
-        <f>SUM(C13:C20)</f>
-        <v>17</v>
+        <f t="shared" ref="C21:I21" si="0">SUM(C13:C20)</f>
+        <v>20</v>
       </c>
       <c r="D21" s="208">
-        <f>SUM(D13:D20)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E21" s="208">
-        <f>SUM(E13:E20)</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="F21" s="208">
-        <f>SUM(F13:F20)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G21" s="208">
-        <f>SUM(G13:G20)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H21" s="208">
-        <f>SUM(H13:H20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I21" s="208">
-        <f>SUM(I13:I20)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -5435,7 +5456,7 @@
       <c r="C23" s="206"/>
       <c r="D23" s="215">
         <f>(C21+D21)*100/(I21)</f>
-        <v>28.333333333333332</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="E23" s="206" t="s">
         <v>101</v>
@@ -5453,7 +5474,7 @@
       <c r="C24" s="206"/>
       <c r="D24" s="215">
         <f>C21*100/(I21)</f>
-        <v>28.333333333333332</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E24" s="206" t="s">
         <v>101</v>
@@ -5471,7 +5492,7 @@
       <c r="C25" s="206"/>
       <c r="D25" s="215">
         <f>F21*100/I21</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25" s="206" t="s">
         <v>101</v>
@@ -5586,42 +5607,42 @@
       <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233" t="str">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="261" t="str">
         <f>Cover!B4</f>
         <v>Mock1_G4_DHCN</v>
       </c>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="235"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="263"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233" t="str">
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="261" t="str">
         <f>Cover!B5</f>
         <v>Mock1_G4_DHCN</v>
       </c>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="235"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="263"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="267" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="241"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="73">
         <v>100</v>
       </c>
@@ -5630,18 +5651,18 @@
       <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="259" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="236" t="s">
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="238"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="266"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="53"/>
@@ -5698,13 +5719,13 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="140" t="s">
         <v>94</v>
       </c>
       <c r="F10" s="204" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="69"/>
       <c r="H10" s="70"/>
@@ -5736,13 +5757,13 @@
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -5754,13 +5775,13 @@
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
       <c r="D13" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70"/>
@@ -5772,13 +5793,13 @@
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="70"/>
@@ -5844,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:S7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5888,10 +5909,10 @@
       <c r="S1" s="138"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="271"/>
       <c r="C2" s="272" t="s">
         <v>96</v>
       </c>
@@ -5917,25 +5938,25 @@
       <c r="S2" s="278"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
       <c r="N3" s="163"/>
       <c r="O3" s="163"/>
       <c r="P3" s="163"/>
@@ -5944,114 +5965,114 @@
       <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="267">
+      <c r="B4" s="280"/>
+      <c r="C4" s="293">
         <v>100</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261">
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="295">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E5/1000,- N7),"N/A")</f>
         <v>-5</v>
       </c>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="297"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="257" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="251" t="s">
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="255" t="s">
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="256"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="265">
+      <c r="A7" s="286">
         <f>COUNTIF(E48:S48,"P")</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="281">
+        <v>9</v>
+      </c>
+      <c r="B7" s="287"/>
+      <c r="C7" s="288">
         <f>COUNTIF(E48:S48,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="281">
+      <c r="D7" s="289"/>
+      <c r="E7" s="288">
         <f>SUM(N7,-A7,-C7)</f>
-        <v>9</v>
-      </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="282"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="165">
         <f>COUNTIF(E47:S47,"N")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" s="165">
         <f>COUNTIF(E47:S47,"A")</f>
@@ -6061,15 +6082,15 @@
         <f>COUNTIF(E47:S47,"B")</f>
         <v>1</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="291">
         <f>COUNTA(E9:S9)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="292"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="138"/>
@@ -6264,7 +6285,7 @@
       <c r="A15" s="172"/>
       <c r="B15" s="144"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="297" t="s">
+      <c r="D15" s="223" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="147"/>
@@ -6289,7 +6310,7 @@
       <c r="A16" s="172"/>
       <c r="B16" s="197"/>
       <c r="C16" s="198"/>
-      <c r="D16" s="291" t="s">
+      <c r="D16" s="217" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="158"/>
@@ -6326,7 +6347,9 @@
       <c r="I17" s="158"/>
       <c r="J17" s="158"/>
       <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
+      <c r="L17" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="M17" s="158"/>
       <c r="N17" s="158"/>
       <c r="O17" s="158"/>
@@ -6339,7 +6362,7 @@
       <c r="A18" s="172"/>
       <c r="B18" s="144"/>
       <c r="C18" s="145"/>
-      <c r="D18" s="298" t="s">
+      <c r="D18" s="224" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="158"/>
@@ -6364,7 +6387,7 @@
       <c r="A19" s="172"/>
       <c r="B19" s="144"/>
       <c r="C19" s="145"/>
-      <c r="D19" s="298" t="s">
+      <c r="D19" s="224" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="147"/>
@@ -6389,13 +6412,18 @@
       <c r="A20" s="172"/>
       <c r="B20" s="143"/>
       <c r="C20" s="145"/>
+      <c r="D20" s="198" t="s">
+        <v>134</v>
+      </c>
       <c r="E20" s="196"/>
       <c r="F20" s="158"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
       <c r="I20" s="158"/>
       <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
+      <c r="K20" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="L20" s="158"/>
       <c r="M20" s="158"/>
       <c r="N20" s="158"/>
@@ -6409,7 +6437,9 @@
       <c r="A21" s="172"/>
       <c r="B21" s="144"/>
       <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="D21" s="146" t="s">
+        <v>133</v>
+      </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158"/>
       <c r="G21" s="158"/>
@@ -6418,7 +6448,9 @@
       <c r="J21" s="158"/>
       <c r="K21" s="158"/>
       <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
+      <c r="M21" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="N21" s="158"/>
       <c r="O21" s="158"/>
       <c r="P21" s="158"/>
@@ -6449,7 +6481,9 @@
     </row>
     <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="172"/>
-      <c r="B23" s="144"/>
+      <c r="B23" s="144" t="s">
+        <v>136</v>
+      </c>
       <c r="C23" s="145"/>
       <c r="D23" s="146"/>
       <c r="E23" s="147"/>
@@ -6472,13 +6506,25 @@
       <c r="A24" s="172"/>
       <c r="B24" s="144"/>
       <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
+      <c r="D24" s="224" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
+      <c r="F24" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="K24" s="158"/>
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
@@ -6491,16 +6537,20 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="172"/>
-      <c r="B25" s="283"/>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284"/>
+      <c r="B25" s="317" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="318"/>
+      <c r="D25" s="319"/>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
       <c r="G25" s="147"/>
       <c r="H25" s="147"/>
       <c r="I25" s="147"/>
       <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
+      <c r="K25" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="L25" s="147"/>
       <c r="M25" s="147"/>
       <c r="N25" s="147"/>
@@ -6512,9 +6562,11 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="200"/>
-      <c r="B26" s="285"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="287"/>
+      <c r="B26" s="310">
+        <v>0</v>
+      </c>
+      <c r="C26" s="311"/>
+      <c r="D26" s="312"/>
       <c r="E26" s="147"/>
       <c r="F26" s="147"/>
       <c r="G26" s="147"/>
@@ -6522,7 +6574,9 @@
       <c r="I26" s="147"/>
       <c r="J26" s="147"/>
       <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
+      <c r="L26" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="M26" s="147"/>
       <c r="N26" s="147"/>
       <c r="O26" s="147"/>
@@ -6533,9 +6587,9 @@
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="200"/>
-      <c r="B27" s="288"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="290"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="314"/>
+      <c r="D27" s="315"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
       <c r="G27" s="158"/>
@@ -6716,8 +6770,12 @@
       <c r="J35" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
+      <c r="K35" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="160" t="s">
+        <v>78</v>
+      </c>
       <c r="M35" s="160"/>
       <c r="N35" s="160"/>
       <c r="O35" s="160"/>
@@ -6728,8 +6786,8 @@
     </row>
     <row r="36" spans="1:19" ht="19.5" customHeight="1">
       <c r="A36" s="180"/>
-      <c r="B36" s="294"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="193" t="b">
         <v>0</v>
       </c>
@@ -6751,7 +6809,9 @@
       <c r="J36" s="147"/>
       <c r="K36" s="147"/>
       <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
+      <c r="M36" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="N36" s="147"/>
       <c r="O36" s="147"/>
       <c r="P36" s="147"/>
@@ -6761,9 +6821,9 @@
     </row>
     <row r="37" spans="1:19" ht="18.75" customHeight="1">
       <c r="A37" s="180"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="222"/>
       <c r="E37" s="147"/>
       <c r="F37" s="147"/>
       <c r="G37" s="147"/>
@@ -6782,9 +6842,9 @@
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="180"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="301"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="147"/>
       <c r="F38" s="147"/>
       <c r="G38" s="147"/>
@@ -6870,7 +6930,9 @@
       <c r="J41" s="158"/>
       <c r="K41" s="158"/>
       <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
+      <c r="M41" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="N41" s="158"/>
       <c r="O41" s="158"/>
       <c r="P41" s="158"/>
@@ -6987,11 +7049,11 @@
       <c r="A47" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="170" t="s">
         <v>31</v>
       </c>
@@ -7010,9 +7072,15 @@
       <c r="J47" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
+      <c r="K47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="170" t="s">
+        <v>30</v>
+      </c>
       <c r="N47" s="170"/>
       <c r="O47" s="170"/>
       <c r="P47" s="170"/>
@@ -7022,11 +7090,11 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="180"/>
-      <c r="B48" s="269" t="s">
+      <c r="B48" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
+      <c r="C48" s="307"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="162" t="s">
         <v>74</v>
       </c>
@@ -7045,9 +7113,15 @@
       <c r="J48" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="K48" s="162"/>
-      <c r="L48" s="162"/>
-      <c r="M48" s="162"/>
+      <c r="K48" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="162" t="s">
+        <v>74</v>
+      </c>
       <c r="N48" s="162"/>
       <c r="O48" s="162"/>
       <c r="P48" s="162"/>
@@ -7057,11 +7131,11 @@
     </row>
     <row r="49" spans="1:19" ht="16.5" customHeight="1">
       <c r="A49" s="180"/>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
+      <c r="C49" s="308"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79" t="s">
         <v>79</v>
       </c>
@@ -7080,9 +7154,15 @@
       <c r="J49" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
+      <c r="K49" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" s="79" t="s">
+        <v>87</v>
+      </c>
       <c r="N49" s="79"/>
       <c r="O49" s="79"/>
       <c r="P49" s="79"/>
@@ -7092,9 +7172,9 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="186"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
+      <c r="B50" s="309"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="309"/>
       <c r="E50" s="178"/>
       <c r="F50" s="178"/>
       <c r="G50" s="178"/>
@@ -7114,14 +7194,13 @@
     <row r="51" spans="1:19" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -7137,15 +7216,17 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:S6"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7153,7 +7234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7195,10 +7278,10 @@
       <c r="S1" s="83"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="271"/>
       <c r="C2" s="272" t="s">
         <v>94</v>
       </c>
@@ -7224,25 +7307,25 @@
       <c r="S2" s="278"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
       <c r="N3" s="106"/>
       <c r="O3" s="106"/>
       <c r="P3" s="106"/>
@@ -7251,114 +7334,114 @@
       <c r="S3" s="107"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="267">
+      <c r="B4" s="280"/>
+      <c r="C4" s="293">
         <v>100</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261">
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="295">
         <f xml:space="preserve"> IF(FunctionList!E5&lt;&gt;"N/A",SUM(C4*FunctionList!E5/1000,- N7),"N/A")</f>
         <v>-5</v>
       </c>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="297"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="257" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="251" t="s">
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="255" t="s">
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="256"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="265">
+      <c r="A7" s="286">
         <f>COUNTIF(E47:S47,"P")</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="281">
+        <v>7</v>
+      </c>
+      <c r="B7" s="287"/>
+      <c r="C7" s="288">
         <f>COUNTIF(E47:S47,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="281">
+      <c r="D7" s="289"/>
+      <c r="E7" s="288">
         <f>SUM(N7,- A7,- C7)</f>
-        <v>9</v>
-      </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="282"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="108">
         <f>COUNTIF(E46:S46,"N")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="108">
         <f>COUNTIF(E46:S46,"A")</f>
@@ -7368,15 +7451,15 @@
         <f>COUNTIF(E46:S46,"B")</f>
         <v>1</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="291">
         <f>COUNTA(E9:S9)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="292"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="83"/>
@@ -7570,8 +7653,8 @@
     <row r="15" spans="1:19" ht="18" customHeight="1">
       <c r="A15" s="115"/>
       <c r="B15" s="87"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="297" t="s">
+      <c r="C15" s="223"/>
+      <c r="D15" s="223" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="147"/>
@@ -7596,7 +7679,7 @@
       <c r="A16" s="115"/>
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
-      <c r="D16" s="291" t="s">
+      <c r="D16" s="217" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="158"/>
@@ -7645,7 +7728,7 @@
       <c r="A18" s="115"/>
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
-      <c r="D18" s="298" t="s">
+      <c r="D18" s="224" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="101"/>
@@ -7668,9 +7751,9 @@
     </row>
     <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="115"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="293"/>
-      <c r="D19" s="298" t="s">
+      <c r="B19" s="218"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="224" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="90"/>
@@ -7693,16 +7776,20 @@
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="115"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="293"/>
-      <c r="D20" s="293"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="198" t="s">
+        <v>134</v>
+      </c>
       <c r="E20" s="196"/>
       <c r="F20" s="101"/>
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
       <c r="I20" s="101"/>
       <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
+      <c r="K20" s="101" t="s">
+        <v>78</v>
+      </c>
       <c r="L20" s="101"/>
       <c r="M20" s="101"/>
       <c r="N20" s="101"/>
@@ -8034,8 +8121,8 @@
     </row>
     <row r="36" spans="1:19" ht="20.25" customHeight="1">
       <c r="A36" s="123"/>
-      <c r="B36" s="294"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="193" t="s">
         <v>107</v>
       </c>
@@ -8059,8 +8146,8 @@
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="123"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="295"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="193" t="s">
         <v>108</v>
       </c>
@@ -8136,7 +8223,7 @@
       <c r="A40" s="123"/>
       <c r="B40" s="137"/>
       <c r="C40" s="104"/>
-      <c r="D40" s="298" t="s">
+      <c r="D40" s="224" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="101"/>
@@ -8161,14 +8248,18 @@
       <c r="A41" s="123"/>
       <c r="B41" s="98"/>
       <c r="C41" s="104"/>
-      <c r="D41" s="100"/>
+      <c r="D41" s="198" t="s">
+        <v>134</v>
+      </c>
       <c r="E41" s="101"/>
       <c r="F41" s="101"/>
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
       <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
+      <c r="K41" s="101" t="s">
+        <v>78</v>
+      </c>
       <c r="L41" s="101"/>
       <c r="M41" s="101"/>
       <c r="N41" s="101"/>
@@ -8266,11 +8357,11 @@
       <c r="A46" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="271" t="s">
+      <c r="B46" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271"/>
+      <c r="C46" s="316"/>
+      <c r="D46" s="316"/>
       <c r="E46" s="113" t="s">
         <v>31</v>
       </c>
@@ -8289,7 +8380,9 @@
       <c r="J46" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="K46" s="113"/>
+      <c r="K46" s="170" t="s">
+        <v>30</v>
+      </c>
       <c r="L46" s="113"/>
       <c r="M46" s="113"/>
       <c r="N46" s="113"/>
@@ -8301,11 +8394,11 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="123"/>
-      <c r="B47" s="269" t="s">
+      <c r="B47" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
+      <c r="C47" s="307"/>
+      <c r="D47" s="307"/>
       <c r="E47" s="105" t="s">
         <v>74</v>
       </c>
@@ -8324,7 +8417,9 @@
       <c r="J47" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="K47" s="105"/>
+      <c r="K47" s="105" t="s">
+        <v>74</v>
+      </c>
       <c r="L47" s="105"/>
       <c r="M47" s="105"/>
       <c r="N47" s="105"/>
@@ -8336,11 +8431,11 @@
     </row>
     <row r="48" spans="1:19" ht="16.5" customHeight="1">
       <c r="A48" s="123"/>
-      <c r="B48" s="270" t="s">
+      <c r="B48" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="270"/>
-      <c r="D48" s="270"/>
+      <c r="C48" s="308"/>
+      <c r="D48" s="308"/>
       <c r="E48" s="79" t="s">
         <v>79</v>
       </c>
@@ -8389,9 +8484,9 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1">
       <c r="A49" s="129"/>
-      <c r="B49" s="242"/>
-      <c r="C49" s="242"/>
-      <c r="D49" s="242"/>
+      <c r="B49" s="309"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="309"/>
       <c r="E49" s="121"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
@@ -8411,14 +8506,6 @@
     <row r="50" spans="1:19" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B46:D46"/>
@@ -8435,6 +8522,14 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="K4:S4"/>
     <mergeCell ref="E6:J6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
@@ -8447,8 +8542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8478,10 +8573,10 @@
       <c r="S1" s="205"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="271"/>
       <c r="C2" s="272" t="s">
         <v>96</v>
       </c>
@@ -8507,25 +8602,25 @@
       <c r="S2" s="278"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
       <c r="N3" s="163"/>
       <c r="O3" s="163"/>
       <c r="P3" s="163"/>
@@ -8534,111 +8629,111 @@
       <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="267">
+      <c r="B4" s="280"/>
+      <c r="C4" s="293">
         <v>100</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261">
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="295">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E5/1000,- N7),"N/A")</f>
         <v>-5</v>
       </c>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="297"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="257" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="251" t="s">
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="255" t="s">
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="256"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="265">
+      <c r="A7" s="286">
         <f>COUNTIF(E48:S48,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="281">
+      <c r="B7" s="287"/>
+      <c r="C7" s="288">
         <f>COUNTIF(E48:S48,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="281">
+      <c r="D7" s="289"/>
+      <c r="E7" s="288">
         <f>SUM(N7,-A7,-C7)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="282"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="165">
         <f>COUNTIF(E47:S47,"N")</f>
         <v>3</v>
@@ -8651,15 +8746,15 @@
         <f>COUNTIF(E47:S47,"B")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="291">
         <f>COUNTA(E9:S9)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="292"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="205"/>
@@ -8761,7 +8856,7 @@
       <c r="A11" s="172"/>
       <c r="B11" s="144"/>
       <c r="C11" s="145"/>
-      <c r="D11" s="302" t="s">
+      <c r="D11" s="228" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="158"/>
@@ -8830,8 +8925,8 @@
       <c r="A14" s="172"/>
       <c r="B14" s="144"/>
       <c r="C14" s="145"/>
-      <c r="D14" s="308" t="s">
-        <v>121</v>
+      <c r="D14" s="234" t="s">
+        <v>120</v>
       </c>
       <c r="E14" s="158" t="s">
         <v>78</v>
@@ -8855,7 +8950,7 @@
       <c r="A15" s="172"/>
       <c r="B15" s="144"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="309">
+      <c r="D15" s="235">
         <v>41860</v>
       </c>
       <c r="E15" s="147"/>
@@ -8881,7 +8976,7 @@
       <c r="B16" s="197"/>
       <c r="C16" s="198"/>
       <c r="D16" s="203" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="158"/>
       <c r="F16" s="158"/>
@@ -9071,12 +9166,12 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="172"/>
-      <c r="B25" s="305" t="s">
+      <c r="B25" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="306"/>
-      <c r="D25" s="307" t="s">
-        <v>120</v>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233" t="s">
+        <v>135</v>
       </c>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
@@ -9096,10 +9191,10 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="200"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="301" t="s">
-        <v>121</v>
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="147" t="s">
         <v>78</v>
@@ -9125,9 +9220,9 @@
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="200"/>
-      <c r="B27" s="310"/>
-      <c r="C27" s="311"/>
-      <c r="D27" s="312"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="238"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
       <c r="G27" s="158"/>
@@ -9146,8 +9241,8 @@
     </row>
     <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="200"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="304"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="201"/>
       <c r="E28" s="147"/>
       <c r="F28" s="147"/>
@@ -9167,8 +9262,8 @@
     </row>
     <row r="29" spans="1:19" ht="17.25" thickBot="1">
       <c r="A29" s="200"/>
-      <c r="B29" s="303"/>
-      <c r="C29" s="304"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="230"/>
       <c r="D29" s="201"/>
       <c r="E29" s="151"/>
       <c r="F29" s="151"/>
@@ -9188,8 +9283,8 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickTop="1">
       <c r="A30" s="200"/>
-      <c r="B30" s="303"/>
-      <c r="C30" s="304"/>
+      <c r="B30" s="229"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="201"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -9209,8 +9304,8 @@
     </row>
     <row r="31" spans="1:19" ht="17.25" thickBot="1">
       <c r="A31" s="200"/>
-      <c r="B31" s="303"/>
-      <c r="C31" s="304"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="230"/>
       <c r="D31" s="201"/>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -9322,8 +9417,8 @@
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="180"/>
-      <c r="B36" s="294"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="193" t="b">
         <v>0</v>
       </c>
@@ -9347,9 +9442,9 @@
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="180"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="222"/>
       <c r="E37" s="147"/>
       <c r="F37" s="147"/>
       <c r="G37" s="147"/>
@@ -9368,9 +9463,9 @@
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="180"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="301"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="147"/>
       <c r="F38" s="147"/>
       <c r="G38" s="147"/>
@@ -9565,11 +9660,11 @@
       <c r="A47" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="170" t="s">
         <v>30</v>
       </c>
@@ -9594,11 +9689,11 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="180"/>
-      <c r="B48" s="269" t="s">
+      <c r="B48" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
+      <c r="C48" s="307"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="162" t="s">
         <v>74</v>
       </c>
@@ -9623,11 +9718,11 @@
     </row>
     <row r="49" spans="1:19" ht="19.5" customHeight="1">
       <c r="A49" s="180"/>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
+      <c r="C49" s="308"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79" t="s">
         <v>79</v>
       </c>
@@ -9652,9 +9747,9 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="186"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
+      <c r="B50" s="309"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="309"/>
       <c r="E50" s="178"/>
       <c r="F50" s="178"/>
       <c r="G50" s="178"/>
@@ -9674,25 +9769,6 @@
     <row r="51" spans="1:19" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:J2"/>
@@ -9701,6 +9777,25 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9711,8 +9806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9742,10 +9837,10 @@
       <c r="S1" s="205"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="271"/>
       <c r="C2" s="272" t="s">
         <v>96</v>
       </c>
@@ -9771,25 +9866,25 @@
       <c r="S2" s="278"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
       <c r="N3" s="163"/>
       <c r="O3" s="163"/>
       <c r="P3" s="163"/>
@@ -9798,114 +9893,114 @@
       <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="267">
+      <c r="B4" s="280"/>
+      <c r="C4" s="293">
         <v>100</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261">
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="295">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E5/1000,- N7),"N/A")</f>
         <v>-5</v>
       </c>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="297"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="257" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="251" t="s">
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="255" t="s">
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="256"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="265">
+      <c r="A7" s="286">
         <f>COUNTIF(E48:S48,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="287"/>
+      <c r="C7" s="288">
+        <f>COUNTIF(E48:S48,"F")</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="289"/>
+      <c r="E7" s="288">
+        <f>SUM(N7,-A7,-C7)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="281">
-        <f>COUNTIF(E48:S48,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="281">
-        <f>SUM(N7,-A7,-C7)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="282"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="165">
         <f>COUNTIF(E47:S47,"N")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L7" s="165">
         <f>COUNTIF(E47:S47,"A")</f>
@@ -9915,15 +10010,15 @@
         <f>COUNTIF(E47:S47,"B")</f>
         <v>1</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="291">
         <f>COUNTA(E9:S9)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="292"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="205"/>
@@ -10025,8 +10120,8 @@
       <c r="A11" s="172"/>
       <c r="B11" s="144"/>
       <c r="C11" s="145"/>
-      <c r="D11" s="302" t="s">
-        <v>123</v>
+      <c r="D11" s="228" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="158"/>
       <c r="F11" s="158"/>
@@ -10072,7 +10167,7 @@
       </c>
       <c r="C13" s="145"/>
       <c r="D13" s="202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="158"/>
       <c r="F13" s="158"/>
@@ -10094,7 +10189,7 @@
       <c r="A14" s="172"/>
       <c r="B14" s="144"/>
       <c r="C14" s="145"/>
-      <c r="D14" s="314">
+      <c r="D14" s="240">
         <v>0</v>
       </c>
       <c r="E14" s="158" t="s">
@@ -10106,7 +10201,9 @@
       <c r="I14" s="158"/>
       <c r="J14" s="158"/>
       <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
+      <c r="L14" s="158">
+        <v>0</v>
+      </c>
       <c r="M14" s="158"/>
       <c r="N14" s="158"/>
       <c r="O14" s="158"/>
@@ -10119,7 +10216,7 @@
       <c r="A15" s="172"/>
       <c r="B15" s="144"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="309" t="s">
+      <c r="D15" s="235" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="147"/>
@@ -10132,7 +10229,9 @@
       <c r="J15" s="147"/>
       <c r="K15" s="147"/>
       <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
+      <c r="M15" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="N15" s="147"/>
       <c r="O15" s="147"/>
       <c r="P15" s="147"/>
@@ -10219,13 +10318,17 @@
       <c r="A19" s="172"/>
       <c r="B19" s="144"/>
       <c r="C19" s="145"/>
-      <c r="D19" s="202"/>
+      <c r="D19" s="202" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="147"/>
       <c r="F19" s="147"/>
       <c r="G19" s="147"/>
       <c r="H19" s="147"/>
       <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="J19" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="K19" s="147"/>
       <c r="L19" s="147"/>
       <c r="M19" s="147"/>
@@ -10240,14 +10343,18 @@
       <c r="A20" s="172"/>
       <c r="B20" s="143"/>
       <c r="C20" s="145"/>
-      <c r="D20" s="201"/>
+      <c r="D20" s="216" t="s">
+        <v>133</v>
+      </c>
       <c r="E20" s="196"/>
       <c r="F20" s="158"/>
       <c r="G20" s="158"/>
       <c r="H20" s="158"/>
       <c r="I20" s="158"/>
       <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
+      <c r="K20" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="L20" s="158"/>
       <c r="M20" s="158"/>
       <c r="N20" s="158"/>
@@ -10261,7 +10368,9 @@
       <c r="A21" s="172"/>
       <c r="B21" s="144"/>
       <c r="C21" s="145"/>
-      <c r="D21" s="202"/>
+      <c r="D21" s="216" t="s">
+        <v>137</v>
+      </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158"/>
       <c r="G21" s="158"/>
@@ -10271,7 +10380,9 @@
       <c r="K21" s="158"/>
       <c r="L21" s="158"/>
       <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
+      <c r="N21" s="158" t="s">
+        <v>78</v>
+      </c>
       <c r="O21" s="158"/>
       <c r="P21" s="158"/>
       <c r="Q21" s="158"/>
@@ -10343,12 +10454,12 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="172"/>
-      <c r="B25" s="305" t="s">
+      <c r="B25" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="306"/>
-      <c r="D25" s="313" t="s">
-        <v>125</v>
+      <c r="C25" s="232"/>
+      <c r="D25" s="239" t="s">
+        <v>124</v>
       </c>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
@@ -10368,9 +10479,9 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="200"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="301">
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227">
         <v>123456</v>
       </c>
       <c r="E26" s="147" t="s">
@@ -10388,8 +10499,12 @@
       <c r="I26" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
+      <c r="J26" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="L26" s="147"/>
       <c r="M26" s="147"/>
       <c r="N26" s="147"/>
@@ -10401,9 +10516,11 @@
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="200"/>
-      <c r="B27" s="310"/>
-      <c r="C27" s="311"/>
-      <c r="D27" s="312"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="238">
+        <v>0</v>
+      </c>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
       <c r="G27" s="158"/>
@@ -10411,7 +10528,9 @@
       <c r="I27" s="158"/>
       <c r="J27" s="158"/>
       <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
+      <c r="L27" s="158">
+        <v>0</v>
+      </c>
       <c r="M27" s="158"/>
       <c r="N27" s="158"/>
       <c r="O27" s="158"/>
@@ -10422,9 +10541,11 @@
     </row>
     <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="200"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="304"/>
-      <c r="D28" s="201"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="216" t="s">
+        <v>107</v>
+      </c>
       <c r="E28" s="147"/>
       <c r="F28" s="147"/>
       <c r="G28" s="147"/>
@@ -10433,7 +10554,9 @@
       <c r="J28" s="147"/>
       <c r="K28" s="147"/>
       <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
+      <c r="M28" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="N28" s="147"/>
       <c r="O28" s="147"/>
       <c r="P28" s="147"/>
@@ -10443,9 +10566,11 @@
     </row>
     <row r="29" spans="1:19" ht="17.25" thickBot="1">
       <c r="A29" s="200"/>
-      <c r="B29" s="303"/>
-      <c r="C29" s="304"/>
-      <c r="D29" s="201"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="216" t="s">
+        <v>137</v>
+      </c>
       <c r="E29" s="151"/>
       <c r="F29" s="151"/>
       <c r="G29" s="151"/>
@@ -10455,7 +10580,9 @@
       <c r="K29" s="151"/>
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
+      <c r="N29" s="151" t="s">
+        <v>78</v>
+      </c>
       <c r="O29" s="151"/>
       <c r="P29" s="151"/>
       <c r="Q29" s="151"/>
@@ -10464,8 +10591,8 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickTop="1">
       <c r="A30" s="200"/>
-      <c r="B30" s="303"/>
-      <c r="C30" s="304"/>
+      <c r="B30" s="229"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="201"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -10485,8 +10612,8 @@
     </row>
     <row r="31" spans="1:19" ht="17.25" thickBot="1">
       <c r="A31" s="200"/>
-      <c r="B31" s="303"/>
-      <c r="C31" s="304"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="230"/>
       <c r="D31" s="201"/>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -10585,9 +10712,15 @@
       <c r="I35" s="160"/>
       <c r="J35" s="160"/>
       <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
+      <c r="L35" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" s="160" t="s">
+        <v>78</v>
+      </c>
       <c r="O35" s="160"/>
       <c r="P35" s="160"/>
       <c r="Q35" s="160"/>
@@ -10596,8 +10729,8 @@
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="180"/>
-      <c r="B36" s="294"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="193" t="b">
         <v>0</v>
       </c>
@@ -10614,8 +10747,12 @@
       <c r="I36" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
+      <c r="J36" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="147" t="s">
+        <v>78</v>
+      </c>
       <c r="L36" s="147"/>
       <c r="M36" s="147"/>
       <c r="N36" s="147"/>
@@ -10627,9 +10764,9 @@
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="180"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="222"/>
       <c r="E37" s="147"/>
       <c r="F37" s="147"/>
       <c r="G37" s="147"/>
@@ -10648,9 +10785,9 @@
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="180"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="301"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="147"/>
       <c r="F38" s="147"/>
       <c r="G38" s="147"/>
@@ -10841,11 +10978,11 @@
       <c r="A47" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="170" t="s">
         <v>32</v>
       </c>
@@ -10861,11 +10998,21 @@
       <c r="I47" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
+      <c r="J47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="170" t="s">
+        <v>30</v>
+      </c>
       <c r="O47" s="170"/>
       <c r="P47" s="170"/>
       <c r="Q47" s="170"/>
@@ -10874,11 +11021,11 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="180"/>
-      <c r="B48" s="269" t="s">
+      <c r="B48" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
+      <c r="C48" s="307"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="162" t="s">
         <v>74</v>
       </c>
@@ -10894,11 +11041,21 @@
       <c r="I48" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="162"/>
-      <c r="K48" s="162"/>
-      <c r="L48" s="162"/>
-      <c r="M48" s="162"/>
-      <c r="N48" s="162"/>
+      <c r="J48" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="M48" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="162" t="s">
+        <v>138</v>
+      </c>
       <c r="O48" s="162"/>
       <c r="P48" s="162"/>
       <c r="Q48" s="162"/>
@@ -10907,11 +11064,11 @@
     </row>
     <row r="49" spans="1:19" ht="21.75" customHeight="1">
       <c r="A49" s="180"/>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
+      <c r="C49" s="308"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79" t="s">
         <v>79</v>
       </c>
@@ -10927,11 +11084,21 @@
       <c r="I49" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
+      <c r="J49" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N49" s="79" t="s">
+        <v>88</v>
+      </c>
       <c r="O49" s="79"/>
       <c r="P49" s="79"/>
       <c r="Q49" s="79"/>
@@ -10940,9 +11107,9 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="186"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
+      <c r="B50" s="309"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="309"/>
       <c r="E50" s="178"/>
       <c r="F50" s="178"/>
       <c r="G50" s="178"/>
@@ -10962,25 +11129,6 @@
     <row r="51" spans="1:19" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:J2"/>
@@ -10989,6 +11137,25 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11024,10 +11191,10 @@
       <c r="S1" s="205"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="271"/>
       <c r="C2" s="272" t="s">
         <v>96</v>
       </c>
@@ -11053,25 +11220,25 @@
       <c r="S2" s="278"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="243" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="258" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
       <c r="N3" s="163"/>
       <c r="O3" s="163"/>
       <c r="P3" s="163"/>
@@ -11080,111 +11247,111 @@
       <c r="S3" s="164"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="267">
+      <c r="B4" s="280"/>
+      <c r="C4" s="293">
         <v>100</v>
       </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="258" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261">
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="295">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C4*FunctionList!E5/1000,- N7),"N/A")</f>
         <v>-5</v>
       </c>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="262"/>
-      <c r="Q4" s="262"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="L4" s="296"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="296"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="296"/>
+      <c r="Q4" s="296"/>
+      <c r="R4" s="296"/>
+      <c r="S4" s="297"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="279" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="249"/>
-      <c r="S5" s="249"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="257" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="257" t="s">
+      <c r="D6" s="303"/>
+      <c r="E6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="251" t="s">
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="303"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="303" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="255" t="s">
+      <c r="L6" s="303"/>
+      <c r="M6" s="303"/>
+      <c r="N6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="251"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="251"/>
-      <c r="R6" s="251"/>
-      <c r="S6" s="256"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="303"/>
+      <c r="Q6" s="303"/>
+      <c r="R6" s="303"/>
+      <c r="S6" s="306"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="265">
+      <c r="A7" s="286">
         <f>COUNTIF(E48:S48,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="266"/>
-      <c r="C7" s="281">
+      <c r="B7" s="287"/>
+      <c r="C7" s="288">
         <f>COUNTIF(E48:S48,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="281">
+      <c r="D7" s="289"/>
+      <c r="E7" s="288">
         <f>SUM(N7,-A7,-C7)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253"/>
-      <c r="J7" s="282"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="165">
         <f>COUNTIF(E47:S47,"N")</f>
         <v>3</v>
@@ -11197,15 +11364,15 @@
         <f>COUNTIF(E47:S47,"B")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="291">
         <f>COUNTA(E9:S9)</f>
         <v>15</v>
       </c>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="254"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="292"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="205"/>
@@ -11307,8 +11474,8 @@
       <c r="A11" s="172"/>
       <c r="B11" s="144"/>
       <c r="C11" s="145"/>
-      <c r="D11" s="302" t="s">
-        <v>126</v>
+      <c r="D11" s="228" t="s">
+        <v>125</v>
       </c>
       <c r="E11" s="158"/>
       <c r="F11" s="158"/>
@@ -11354,7 +11521,7 @@
       </c>
       <c r="C13" s="145"/>
       <c r="D13" s="202" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="158"/>
       <c r="F13" s="158"/>
@@ -11376,7 +11543,7 @@
       <c r="A14" s="172"/>
       <c r="B14" s="144"/>
       <c r="C14" s="145"/>
-      <c r="D14" s="314">
+      <c r="D14" s="240">
         <v>1</v>
       </c>
       <c r="E14" s="158" t="s">
@@ -11401,7 +11568,7 @@
       <c r="A15" s="172"/>
       <c r="B15" s="144"/>
       <c r="C15" s="145"/>
-      <c r="D15" s="315">
+      <c r="D15" s="241">
         <v>2</v>
       </c>
       <c r="E15" s="147"/>
@@ -11617,9 +11784,9 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="172"/>
-      <c r="B25" s="305"/>
-      <c r="C25" s="306"/>
-      <c r="D25" s="313"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="239"/>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
       <c r="G25" s="147"/>
@@ -11638,9 +11805,9 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="200"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="301"/>
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227"/>
       <c r="E26" s="147"/>
       <c r="F26" s="147"/>
       <c r="G26" s="147"/>
@@ -11659,9 +11826,9 @@
     </row>
     <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="200"/>
-      <c r="B27" s="310"/>
-      <c r="C27" s="311"/>
-      <c r="D27" s="312"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="238"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
       <c r="G27" s="158"/>
@@ -11680,8 +11847,8 @@
     </row>
     <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="200"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="304"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="230"/>
       <c r="D28" s="201"/>
       <c r="E28" s="147"/>
       <c r="F28" s="147"/>
@@ -11701,8 +11868,8 @@
     </row>
     <row r="29" spans="1:19" ht="17.25" thickBot="1">
       <c r="A29" s="200"/>
-      <c r="B29" s="303"/>
-      <c r="C29" s="304"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="230"/>
       <c r="D29" s="201"/>
       <c r="E29" s="151"/>
       <c r="F29" s="151"/>
@@ -11722,8 +11889,8 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickTop="1">
       <c r="A30" s="200"/>
-      <c r="B30" s="303"/>
-      <c r="C30" s="304"/>
+      <c r="B30" s="229"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="201"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -11743,8 +11910,8 @@
     </row>
     <row r="31" spans="1:19" ht="17.25" thickBot="1">
       <c r="A31" s="200"/>
-      <c r="B31" s="303"/>
-      <c r="C31" s="304"/>
+      <c r="B31" s="229"/>
+      <c r="C31" s="230"/>
       <c r="D31" s="201"/>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -11850,8 +12017,8 @@
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="180"/>
-      <c r="B36" s="294"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="221"/>
       <c r="D36" s="193"/>
       <c r="E36" s="147"/>
       <c r="F36" s="147"/>
@@ -11871,9 +12038,9 @@
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="180"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="295"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="221"/>
+      <c r="D37" s="222"/>
       <c r="E37" s="147"/>
       <c r="F37" s="147"/>
       <c r="G37" s="147"/>
@@ -11892,9 +12059,9 @@
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="180"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="301"/>
+      <c r="B38" s="225"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="227"/>
       <c r="E38" s="147"/>
       <c r="F38" s="147"/>
       <c r="G38" s="147"/>
@@ -11960,7 +12127,7 @@
       <c r="B41" s="194"/>
       <c r="C41" s="161"/>
       <c r="D41" s="157" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="158" t="s">
         <v>78</v>
@@ -11987,7 +12154,7 @@
       <c r="B42" s="155"/>
       <c r="C42" s="161"/>
       <c r="D42" s="157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" s="158"/>
       <c r="F42" s="158"/>
@@ -12095,11 +12262,11 @@
       <c r="A47" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="316" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="170" t="s">
         <v>30</v>
       </c>
@@ -12124,11 +12291,11 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="180"/>
-      <c r="B48" s="269" t="s">
+      <c r="B48" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
+      <c r="C48" s="307"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="162" t="s">
         <v>74</v>
       </c>
@@ -12153,11 +12320,11 @@
     </row>
     <row r="49" spans="1:19" ht="17.25" customHeight="1">
       <c r="A49" s="180"/>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
+      <c r="C49" s="308"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="79" t="s">
         <v>79</v>
       </c>
@@ -12182,9 +12349,9 @@
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1">
       <c r="A50" s="186"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="242"/>
-      <c r="D50" s="242"/>
+      <c r="B50" s="309"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="309"/>
       <c r="E50" s="178"/>
       <c r="F50" s="178"/>
       <c r="G50" s="178"/>
@@ -12204,25 +12371,6 @@
     <row r="51" spans="1:19" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:S5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:J2"/>
@@ -12231,6 +12379,25 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:S5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
